--- a/sprint/Sprint 1 Backlog  Burndown.xlsx
+++ b/sprint/Sprint 1 Backlog  Burndown.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pipai/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pipai/Documents/GitHub/UWG-CS3985-Fall2021-Group5/sprint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E08467-A402-9F4D-9F1C-189059168022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B7D53E-9052-534A-9051-60C89A298587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,14 +209,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -335,13 +335,13 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1389,7 +1389,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1397,29 +1397,30 @@
     <col min="1" max="1" width="99" customWidth="1"/>
     <col min="2" max="2" width="72.33203125" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1444,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -1457,7 +1458,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1467,10 +1468,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1490,13 +1491,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -1513,10 +1514,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1536,13 +1537,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -1559,10 +1560,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1580,10 +1581,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1603,10 +1604,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1626,10 +1627,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1647,13 +1648,13 @@
         <v>4</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -1670,13 +1671,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -1691,13 +1692,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -1712,13 +1713,13 @@
         <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -1734,15 +1735,15 @@
       </c>
       <c r="D16" s="3">
         <f>SUM(D3:D15)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E16" s="3">
         <f>SUM(E3:E15)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F16" s="3">
         <f>SUM(F3:F15)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G16" s="3">
         <f>SUM(G3:G15)</f>
